--- a/Foraging task/Foraging task (Env 1)/reward2.xlsx
+++ b/Foraging task/Foraging task (Env 1)/reward2.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">rewardval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rewardpos</t>
   </si>
 </sst>
 </file>
@@ -35,32 +32,27 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +102,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,106 +130,82 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>7.3</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>-0.2</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>6.9</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>6.2</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>-0.2</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>5.8</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5.1</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>-0.2</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4.6</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>-0.2</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>3.2</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>-0.2</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>-0.2</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
